--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3727696.849611431</v>
+        <v>3727710.09340408</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12278595.48102765</v>
+        <v>12278595.48102766</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1472.867641172485</v>
+        <v>1472.867641173218</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7514012.591715884</v>
+        <v>7514012.591715883</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,35 +679,35 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,52 +746,52 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.99882331561718</v>
+        <v>12.33016357639552</v>
       </c>
       <c r="G5" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>12.33016357639561</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>12.33016357639552</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.33016357639561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>12.33016357639561</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12.33016357639552</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="G8" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="H8" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.454117834684173</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>12.33016357639552</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.33016357639552</v>
       </c>
       <c r="H9" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>12.33016357639561</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>12.33016357639552</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>12.33016357639561</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D11" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F11" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G11" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H11" t="n">
         <v>255.2416659947559</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T11" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W11" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X11" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T12" t="n">
         <v>189.0833237787849</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C13" t="n">
-        <v>135.6366187464138</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D13" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G13" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139452969</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S13" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T13" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V13" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W13" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X13" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D14" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E14" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F14" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G14" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H14" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U14" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V14" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W14" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X14" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C16" t="n">
-        <v>135.6366187464138</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D16" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707152</v>
       </c>
       <c r="G16" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H16" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453175</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221571</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S16" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T16" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V16" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W16" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X16" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1855,10 +1855,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2013,7 +2013,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707187</v>
+        <v>113.8108456707186</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2022,7 +2022,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2061,10 +2061,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2083,7 +2083,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2092,10 +2092,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545722</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2259,7 +2259,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2298,10 +2298,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2320,7 +2320,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187945</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2329,10 +2329,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464139</v>
@@ -2496,7 +2496,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2535,10 +2535,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368232</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2572,7 +2572,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645699</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2623,7 +2623,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401421</v>
@@ -2775,10 +2775,10 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843753</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998809</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2809,7 +2809,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645704</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2860,7 +2860,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221423</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3015,7 +3015,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3097,7 +3097,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E34" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
@@ -3207,7 +3207,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3283,7 +3283,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="36">
@@ -3429,10 +3429,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3444,7 +3444,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453028</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3520,7 +3520,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3571,7 +3571,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943553</v>
@@ -3681,7 +3681,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453028</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3751,10 +3751,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645695</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3912,13 +3912,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510296</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -3979,7 +3979,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3988,10 +3988,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659998</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943552</v>
@@ -4149,13 +4149,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510296</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4194,10 +4194,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4433,28 +4433,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4467,10 +4467,10 @@
         <v>13.6131814684388</v>
       </c>
       <c r="C4" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E4" t="n">
         <v>0.5500836593369149</v>
@@ -4494,16 +4494,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
@@ -4512,28 +4512,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.40035700791035</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="C5" t="n">
-        <v>29.40035700791035</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="D5" t="n">
-        <v>29.40035700791035</v>
+        <v>27.71484211980754</v>
       </c>
       <c r="E5" t="n">
-        <v>29.40035700791035</v>
+        <v>27.71484211980754</v>
       </c>
       <c r="F5" t="n">
-        <v>15.26013143657986</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="G5" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="H5" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="I5" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="J5" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="K5" t="n">
-        <v>14.97874094771039</v>
+        <v>14.41878801508559</v>
       </c>
       <c r="L5" t="n">
-        <v>28.83757603017139</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="M5" t="n">
-        <v>28.83757603017139</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="N5" t="n">
-        <v>28.83757603017139</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="O5" t="n">
-        <v>42.13645818000772</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="P5" t="n">
-        <v>42.13645818000772</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="Q5" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="R5" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="S5" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="T5" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="U5" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="V5" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="W5" t="n">
-        <v>29.40035700791035</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="X5" t="n">
-        <v>29.40035700791035</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="Y5" t="n">
-        <v>29.40035700791035</v>
+        <v>41.85506769113792</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.40035700791035</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="C6" t="n">
-        <v>15.26013143657986</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="D6" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="E6" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="F6" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="G6" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="H6" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="J6" t="n">
-        <v>10.11037288341782</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="K6" t="n">
-        <v>10.11037288341782</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="L6" t="n">
-        <v>14.4187880150857</v>
+        <v>14.41878801508559</v>
       </c>
       <c r="M6" t="n">
-        <v>28.27762309754671</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="N6" t="n">
-        <v>42.13645818000772</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="O6" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="P6" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="R6" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="S6" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="T6" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="U6" t="n">
-        <v>55.99529326246873</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="V6" t="n">
-        <v>55.99529326246873</v>
+        <v>27.71484211980754</v>
       </c>
       <c r="W6" t="n">
-        <v>55.99529326246873</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="X6" t="n">
-        <v>55.99529326246873</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.54058257924084</v>
+        <v>15.26013143657974</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="C7" t="n">
-        <v>27.71484211980775</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="D7" t="n">
-        <v>13.57461654847726</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="E7" t="n">
-        <v>1.119905865249375</v>
+        <v>27.71484211980754</v>
       </c>
       <c r="F7" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="G7" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="H7" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="I7" t="n">
-        <v>1.119905865249375</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="J7" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="K7" t="n">
-        <v>1.119905865249375</v>
+        <v>14.41878801508559</v>
       </c>
       <c r="L7" t="n">
-        <v>14.97874094771039</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="M7" t="n">
-        <v>28.83757603017139</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="N7" t="n">
-        <v>42.6964111126324</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="O7" t="n">
-        <v>55.99529326246873</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="P7" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="R7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="S7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="T7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="U7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="V7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="W7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="X7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="C8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="D8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="E8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="F8" t="n">
-        <v>34.90956694193477</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="G8" t="n">
-        <v>20.76934137060428</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="H8" t="n">
-        <v>6.629115799273793</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="I8" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="J8" t="n">
-        <v>14.97874094771039</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="K8" t="n">
-        <v>14.97874094771039</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="L8" t="n">
-        <v>14.97874094771039</v>
+        <v>11.20365727428489</v>
       </c>
       <c r="M8" t="n">
-        <v>28.27762309754671</v>
+        <v>11.20365727428489</v>
       </c>
       <c r="N8" t="n">
-        <v>42.13645818000772</v>
+        <v>14.41878801508559</v>
       </c>
       <c r="O8" t="n">
-        <v>55.99529326246873</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="P8" t="n">
-        <v>55.99529326246873</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="Q8" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="R8" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="S8" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="T8" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="U8" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="V8" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="W8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="X8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="C9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="D9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="E9" t="n">
-        <v>15.26013143657986</v>
+        <v>27.71484211980754</v>
       </c>
       <c r="F9" t="n">
-        <v>15.26013143657986</v>
+        <v>13.57461654847716</v>
       </c>
       <c r="G9" t="n">
-        <v>15.26013143657986</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="H9" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="I9" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="J9" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="K9" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="L9" t="n">
-        <v>14.4187880150857</v>
+        <v>14.41878801508559</v>
       </c>
       <c r="M9" t="n">
-        <v>28.27762309754671</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="N9" t="n">
-        <v>42.13645818000772</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="O9" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="P9" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="R9" t="n">
-        <v>55.99529326246873</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="S9" t="n">
-        <v>55.99529326246873</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="T9" t="n">
-        <v>43.54058257924084</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="U9" t="n">
-        <v>29.40035700791035</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="V9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="W9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="X9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.26013143657986</v>
+        <v>41.85506769113792</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.85506769113824</v>
+        <v>29.40035700791012</v>
       </c>
       <c r="C10" t="n">
-        <v>41.85506769113824</v>
+        <v>15.26013143657974</v>
       </c>
       <c r="D10" t="n">
-        <v>41.85506769113824</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="E10" t="n">
-        <v>41.85506769113824</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="F10" t="n">
-        <v>41.85506769113824</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="G10" t="n">
-        <v>41.85506769113824</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="H10" t="n">
-        <v>29.40035700791035</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="I10" t="n">
-        <v>15.26013143657986</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="J10" t="n">
-        <v>1.119905865249375</v>
+        <v>1.119905865249366</v>
       </c>
       <c r="K10" t="n">
-        <v>14.97874094771039</v>
+        <v>14.97874094771027</v>
       </c>
       <c r="L10" t="n">
-        <v>14.97874094771039</v>
+        <v>14.97874094771027</v>
       </c>
       <c r="M10" t="n">
-        <v>14.97874094771039</v>
+        <v>14.97874094771027</v>
       </c>
       <c r="N10" t="n">
-        <v>28.27762309754671</v>
+        <v>28.27762309754649</v>
       </c>
       <c r="O10" t="n">
-        <v>42.13645818000772</v>
+        <v>42.13645818000739</v>
       </c>
       <c r="P10" t="n">
-        <v>55.99529326246873</v>
+        <v>55.99529326246829</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="R10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="S10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="T10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="U10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="V10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="W10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="X10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.85506769113824</v>
+        <v>41.85506769113792</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F11" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H11" t="n">
         <v>84.98040897511622</v>
@@ -5041,10 +5041,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050963</v>
@@ -5056,7 +5056,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P11" t="n">
         <v>3813.656640612703</v>
@@ -5068,7 +5068,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T11" t="n">
         <v>4017.391409283565</v>
@@ -5114,28 +5114,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I12" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J12" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L12" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M12" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N12" t="n">
-        <v>1968.593900456</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O12" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P12" t="n">
         <v>2555.644190323788</v>
@@ -5178,40 +5178,40 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I13" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M13" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N13" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
         <v>2087.878830313936</v>
@@ -5266,10 +5266,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G14" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H14" t="n">
         <v>84.98040897511622</v>
@@ -5305,10 +5305,10 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U14" t="n">
         <v>3795.851627400162</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502083</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477733</v>
+        <v>735.85573414777</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609062</v>
+        <v>617.6685920609028</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039818</v>
+        <v>501.6849958039783</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315401</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G16" t="n">
-        <v>251.294345074946</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0574709897948</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N16" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q16" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R16" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5515,7 +5515,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
         <v>766.683188695145</v>
@@ -5542,7 +5542,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5594,22 +5594,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249807</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L18" t="n">
-        <v>841.8200879193082</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529597</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5661,7 +5661,7 @@
         <v>501.6849958039816</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749443</v>
@@ -5676,10 +5676,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5752,16 +5752,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
@@ -5785,19 +5785,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>468.6667932445192</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L21" t="n">
-        <v>922.4654228388466</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M21" t="n">
-        <v>1471.383887449136</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375538</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P21" t="n">
         <v>2555.644190323788</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749443</v>
@@ -5910,34 +5910,34 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127668</v>
@@ -5968,7 +5968,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5977,22 +5977,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6001,7 +6001,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6010,31 +6010,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>468.6667932445192</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L24" t="n">
-        <v>922.4654228388466</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M24" t="n">
-        <v>1471.383887449136</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749443</v>
@@ -6144,22 +6144,22 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313935</v>
@@ -6168,13 +6168,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
@@ -6214,10 +6214,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6235,13 +6235,13 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
@@ -6253,10 +6253,10 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6360,67 +6360,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D28" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E28" t="n">
         <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
         <v>1407.504522645592</v>
@@ -6429,7 +6429,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511625</v>
@@ -6496,19 +6496,19 @@
         <v>4017.391409283567</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
@@ -6621,13 +6621,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6636,22 +6636,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237502</v>
@@ -6660,13 +6660,13 @@
         <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6724,25 +6724,25 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
         <v>2476.13298385146</v>
@@ -6773,13 +6773,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
@@ -6840,22 +6840,22 @@
         <v>735.8557341477721</v>
       </c>
       <c r="D34" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
@@ -6867,7 +6867,7 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
@@ -6925,13 +6925,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511622</v>
@@ -6943,13 +6943,13 @@
         <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -7080,31 +7080,31 @@
         <v>617.668592060905</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
         <v>766.683188695145</v>
@@ -7183,7 +7183,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
@@ -7198,13 +7198,13 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400162</v>
@@ -7219,7 +7219,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7247,13 +7247,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
         <v>519.5985603334505</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.528702044362</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902795</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7411,7 +7411,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K41" t="n">
         <v>766.683188695145</v>
@@ -7423,7 +7423,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7432,7 +7432,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755811</v>
@@ -7444,19 +7444,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
@@ -7572,16 +7572,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7590,31 +7590,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7669,13 +7669,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283565</v>
@@ -7721,13 +7721,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
         <v>519.5985603334505</v>
@@ -7736,10 +7736,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
         <v>2555.644190323788</v>
@@ -7788,22 +7788,22 @@
         <v>735.8557341477731</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.75711748056034</v>
+        <v>94.35534319230364</v>
       </c>
       <c r="K2" t="n">
-        <v>80.27414188615768</v>
+        <v>87.15018762786912</v>
       </c>
       <c r="L2" t="n">
         <v>62.31266440775192</v>
@@ -7990,7 +7990,7 @@
         <v>37.34551476705317</v>
       </c>
       <c r="N2" t="n">
-        <v>39.88761744738939</v>
+        <v>33.28939173564609</v>
       </c>
       <c r="O2" t="n">
         <v>51.78023523767965</v>
@@ -7999,7 +7999,7 @@
         <v>80.05022839850571</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.4861494999904</v>
+        <v>103.6101037582789</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8142,19 +8142,19 @@
         <v>71.73099563173358</v>
       </c>
       <c r="L4" t="n">
-        <v>68.45914756601975</v>
+        <v>61.58310182430832</v>
       </c>
       <c r="M4" t="n">
-        <v>68.51559706360761</v>
+        <v>68.23777703363946</v>
       </c>
       <c r="N4" t="n">
         <v>59.11305144985138</v>
       </c>
       <c r="O4" t="n">
-        <v>75.36582692154452</v>
+        <v>75.64364695151268</v>
       </c>
       <c r="P4" t="n">
-        <v>78.09707910265161</v>
+        <v>84.97312484436304</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>76.64157217316752</v>
+        <v>76.64157217316759</v>
       </c>
       <c r="K5" t="n">
-        <v>77.61364419386288</v>
+        <v>77.04803517100967</v>
       </c>
       <c r="L5" t="n">
-        <v>55.64412689512252</v>
+        <v>55.64412689512255</v>
       </c>
       <c r="M5" t="n">
-        <v>14.34909367152318</v>
+        <v>28.34791698714039</v>
       </c>
       <c r="N5" t="n">
-        <v>9.920864504772339</v>
+        <v>9.92086450477251</v>
       </c>
       <c r="O5" t="n">
-        <v>36.27116617803414</v>
+        <v>36.83677520088742</v>
       </c>
       <c r="P5" t="n">
-        <v>54.34115937651359</v>
+        <v>54.3411593765137</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.4661109109044</v>
+        <v>89.46728759528733</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.73640137452263</v>
+        <v>64.65512155819091</v>
       </c>
       <c r="K6" t="n">
-        <v>31.56163346028099</v>
+        <v>31.56163346028106</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>9.081279816331769</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>8.293059871838238</v>
+        <v>8.293059871838324</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.96712162434005</v>
+        <v>55.96712162434011</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>64.90569963720854</v>
+        <v>78.33891392997246</v>
       </c>
       <c r="L7" t="n">
-        <v>66.84789613409902</v>
+        <v>66.84789613409897</v>
       </c>
       <c r="M7" t="n">
-        <v>66.42956565209903</v>
+        <v>52.4307423364819</v>
       </c>
       <c r="N7" t="n">
-        <v>57.24598493331582</v>
+        <v>57.24598493331578</v>
       </c>
       <c r="O7" t="n">
-        <v>73.89723943661252</v>
+        <v>60.46402514384862</v>
       </c>
       <c r="P7" t="n">
-        <v>70.99193529113666</v>
+        <v>84.99075860675379</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>84.37664005097207</v>
+        <v>70.37781673535255</v>
       </c>
       <c r="K8" t="n">
-        <v>54.22707518805694</v>
+        <v>54.22707518805345</v>
       </c>
       <c r="L8" t="n">
-        <v>29.99897492956805</v>
+        <v>40.18458241343799</v>
       </c>
       <c r="M8" t="n">
-        <v>14.82352333394129</v>
+        <v>1.390309041172515</v>
       </c>
       <c r="N8" t="n">
-        <v>10.75121650673248</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>24.40216115328428</v>
+        <v>24.40216115327956</v>
       </c>
       <c r="P8" t="n">
-        <v>43.7285039718478</v>
+        <v>57.72732728746092</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.49762536126212</v>
+        <v>95.49644867687624</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>60.92447173045026</v>
+        <v>60.92447173044889</v>
       </c>
       <c r="K9" t="n">
-        <v>25.18535869551029</v>
+        <v>25.18535869550792</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5075915139178342</v>
+        <v>0.5075915139145444</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7527863376397192</v>
+        <v>0.7527863376369055</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.92664845287344</v>
+        <v>50.92664845287156</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>75.05837922185168</v>
+        <v>75.05837922185015</v>
       </c>
       <c r="L10" t="n">
-        <v>47.92733302377529</v>
+        <v>47.92733302377346</v>
       </c>
       <c r="M10" t="n">
-        <v>47.24145780180379</v>
+        <v>47.24145780180186</v>
       </c>
       <c r="N10" t="n">
-        <v>51.61448096339795</v>
+        <v>51.61448096339598</v>
       </c>
       <c r="O10" t="n">
-        <v>69.78367453699434</v>
+        <v>69.78367453699249</v>
       </c>
       <c r="P10" t="n">
-        <v>80.98691696380558</v>
+        <v>80.98691696380398</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0738008564227568</v>
+        <v>0.07380085642286605</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.231104190286715e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>657163.1293211812</v>
+        <v>657163.1293211799</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646066.4750850168</v>
+        <v>646066.4750850167</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>799947.0349220862</v>
       </c>
       <c r="C2" t="n">
-        <v>800509.9979332095</v>
+        <v>800509.9979332096</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
         <v>800515.7256176766</v>
@@ -26328,34 +26328,34 @@
         <v>800515.7256176753</v>
       </c>
       <c r="G2" t="n">
+        <v>800515.725617675</v>
+      </c>
+      <c r="H2" t="n">
+        <v>800515.7256176746</v>
+      </c>
+      <c r="I2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="J2" t="n">
+        <v>800515.7256176749</v>
+      </c>
+      <c r="K2" t="n">
         <v>800515.7256176751</v>
-      </c>
-      <c r="H2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176748</v>
-      </c>
-      <c r="J2" t="n">
-        <v>800515.7256176752</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176759</v>
       </c>
       <c r="L2" t="n">
         <v>800515.725617675</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.725617675</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.725617675</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.725617675</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.7256176752</v>
+        <v>800515.725617675</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>265768.6328110548</v>
       </c>
       <c r="C3" t="n">
-        <v>31966.48295123651</v>
+        <v>31966.48295123623</v>
       </c>
       <c r="D3" t="n">
-        <v>15722.01655479836</v>
+        <v>15722.01655480439</v>
       </c>
       <c r="E3" t="n">
-        <v>1104569.218452539</v>
+        <v>1104569.218452534</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27087.23799381547</v>
+        <v>27087.23799381541</v>
       </c>
       <c r="K3" t="n">
-        <v>1833.175018641032</v>
+        <v>1833.175018640917</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-10</v>
       </c>
       <c r="M3" t="n">
         <v>261229.6602123908</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.16188177119</v>
+        <v>25288.16188177108</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>352507.1566243971</v>
       </c>
       <c r="D4" t="n">
-        <v>348314.2775398263</v>
+        <v>348314.2775398247</v>
       </c>
       <c r="E4" t="n">
-        <v>41569.70708102238</v>
+        <v>41569.70708102226</v>
       </c>
       <c r="F4" t="n">
-        <v>41569.70708102239</v>
+        <v>41569.70708102226</v>
       </c>
       <c r="G4" t="n">
-        <v>41569.70708102237</v>
+        <v>41569.70708102235</v>
       </c>
       <c r="H4" t="n">
         <v>41569.70708102235</v>
       </c>
       <c r="I4" t="n">
+        <v>41569.70708102235</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41569.70708102228</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41569.70708102228</v>
+      </c>
+      <c r="L4" t="n">
         <v>41569.70708102232</v>
       </c>
-      <c r="J4" t="n">
-        <v>41569.70708102232</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41569.70708102232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41569.70708102231</v>
-      </c>
       <c r="M4" t="n">
-        <v>41569.70708102231</v>
+        <v>41569.70708102234</v>
       </c>
       <c r="N4" t="n">
-        <v>41569.70708102232</v>
+        <v>41569.70708102234</v>
       </c>
       <c r="O4" t="n">
-        <v>41569.70708102235</v>
+        <v>41569.70708102237</v>
       </c>
       <c r="P4" t="n">
-        <v>41569.70708102235</v>
+        <v>41569.70708102237</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>40006.06676764524</v>
       </c>
       <c r="C5" t="n">
-        <v>41149.32558885854</v>
+        <v>41149.32558885853</v>
       </c>
       <c r="D5" t="n">
-        <v>41549.52918302515</v>
+        <v>41549.5291830253</v>
       </c>
       <c r="E5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="F5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215528</v>
@@ -26490,28 +26490,28 @@
         <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133359.0181245855</v>
+        <v>133372.1417560222</v>
       </c>
       <c r="C6" t="n">
-        <v>374886.885905013</v>
+        <v>374887.0180823473</v>
       </c>
       <c r="D6" t="n">
-        <v>394929.9023400259</v>
+        <v>394929.902340022</v>
       </c>
       <c r="E6" t="n">
-        <v>-440729.6340180403</v>
+        <v>-440729.6340180348</v>
       </c>
       <c r="F6" t="n">
+        <v>663839.5844344981</v>
+      </c>
+      <c r="G6" t="n">
+        <v>663839.5844344973</v>
+      </c>
+      <c r="H6" t="n">
+        <v>663839.5844344971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>663839.584434498</v>
+      </c>
+      <c r="J6" t="n">
+        <v>636752.3464406818</v>
+      </c>
+      <c r="K6" t="n">
+        <v>662006.4094158566</v>
+      </c>
+      <c r="L6" t="n">
+        <v>663839.5844344973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>402609.9242221067</v>
+      </c>
+      <c r="N6" t="n">
         <v>663839.5844344974</v>
       </c>
-      <c r="G6" t="n">
-        <v>663839.5844344975</v>
-      </c>
-      <c r="H6" t="n">
-        <v>663839.584434498</v>
-      </c>
-      <c r="I6" t="n">
-        <v>663839.5844344972</v>
-      </c>
-      <c r="J6" t="n">
-        <v>636752.3464406822</v>
-      </c>
-      <c r="K6" t="n">
-        <v>662006.4094158573</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>638551.4225527263</v>
+      </c>
+      <c r="P6" t="n">
         <v>663839.5844344974</v>
-      </c>
-      <c r="M6" t="n">
-        <v>402609.9242221069</v>
-      </c>
-      <c r="N6" t="n">
-        <v>663839.5844344985</v>
-      </c>
-      <c r="O6" t="n">
-        <v>638551.4225527273</v>
-      </c>
-      <c r="P6" t="n">
-        <v>663839.5844344976</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221398</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>31.61020235221398</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221398</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>273.4129902086785</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9906940949091</v>
+        <v>305.9906940949089</v>
       </c>
       <c r="D3" t="n">
-        <v>324.3486571300747</v>
+        <v>324.3486571300816</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26792,10 +26792,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="D4" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>273.4129902086785</v>
       </c>
       <c r="C3" t="n">
-        <v>32.57770388623061</v>
+        <v>32.57770388623038</v>
       </c>
       <c r="D3" t="n">
-        <v>18.35796303516565</v>
+        <v>18.3579630351727</v>
       </c>
       <c r="E3" t="n">
-        <v>953.811213490048</v>
+        <v>953.8112134900416</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>7.122777573905745</v>
+        <v>7.122777573905523</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
-        <v>7.122777573905973</v>
+        <v>7.122777573905523</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>7.122777573905745</v>
+        <v>7.122777573905523</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>359.2164706817081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>328.2181557399898</v>
       </c>
       <c r="I2" t="n">
-        <v>161.2249521502218</v>
+        <v>168.1009978919332</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>80.82478127302545</v>
+        <v>73.94873553131401</v>
       </c>
       <c r="S2" t="n">
         <v>183.9732413877317</v>
@@ -27435,7 +27435,7 @@
         <v>218.2843305103083</v>
       </c>
       <c r="U2" t="n">
-        <v>251.25772109189</v>
+        <v>245.2013000025906</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.6990002081793</v>
+        <v>136.7554212974788</v>
       </c>
       <c r="H3" t="n">
-        <v>99.67963052837456</v>
+        <v>106.555676270086</v>
       </c>
       <c r="I3" t="n">
-        <v>62.27254962726849</v>
+        <v>69.14859536897993</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.76825737891232</v>
+        <v>57.58788203132432</v>
       </c>
       <c r="S3" t="n">
-        <v>160.7595483346515</v>
+        <v>153.88350259294</v>
       </c>
       <c r="T3" t="n">
-        <v>197.794289657069</v>
+        <v>190.9182439153576</v>
       </c>
       <c r="U3" t="n">
         <v>225.9026915634925</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>160.3707753569164</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D4" t="n">
-        <v>142.5590519289129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27584,7 +27584,7 @@
         <v>38.0006359884725</v>
       </c>
       <c r="R4" t="n">
-        <v>155.1245282694298</v>
+        <v>148.2484825277183</v>
       </c>
       <c r="S4" t="n">
         <v>215.424258656152</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>340.6842183050659</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>392.8772224260942</v>
+        <v>394.5458821653159</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>58.59918733733416</v>
+        <v>58.59918733733433</v>
       </c>
       <c r="S5" t="n">
         <v>180.9888617804655</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>336.9108051410174</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.5343603342502</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7096756726986</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4462422490216</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>105.8789205723739</v>
       </c>
       <c r="I6" t="n">
-        <v>66.73600126042416</v>
+        <v>52.73717794480712</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.29364296766639</v>
+        <v>59.29364296766642</v>
       </c>
       <c r="S6" t="n">
         <v>159.4579768633478</v>
@@ -27751,19 +27751,19 @@
         <v>197.511847111112</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8980815110557</v>
+        <v>211.8992581954386</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.8017638338082</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>239.3648195845241</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.3525322009087</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.2479977830106</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>134.6166497025952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>134.1037990701736</v>
+        <v>132.4351393309521</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>133.0908844465357</v>
       </c>
       <c r="G7" t="n">
         <v>167.4391928609106</v>
@@ -27797,7 +27797,7 @@
         <v>138.856750073718</v>
       </c>
       <c r="J7" t="n">
-        <v>54.34787474001527</v>
+        <v>40.34905142439823</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.95862512774593</v>
+        <v>25.95862512774607</v>
       </c>
       <c r="R7" t="n">
         <v>152.4830639510479</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>392.8772224260944</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>312.1222675043374</v>
+        <v>326.1210908199543</v>
       </c>
       <c r="I8" t="n">
-        <v>154.7526195588083</v>
+        <v>160.2067373934914</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53.96329429006693</v>
+        <v>53.96329429006532</v>
       </c>
       <c r="S8" t="n">
-        <v>179.3071247647314</v>
+        <v>179.3071247647308</v>
       </c>
       <c r="T8" t="n">
-        <v>217.3879651557418</v>
+        <v>217.3879651557417</v>
       </c>
       <c r="U8" t="n">
         <v>251.2413397718751</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>336.9108051410175</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27940,19 +27940,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>143.6462571397839</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>131.0703890777668</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6458615610818</v>
+        <v>124.3156979846863</v>
       </c>
       <c r="H9" t="n">
-        <v>91.49873655295075</v>
+        <v>105.4975598685678</v>
       </c>
       <c r="I9" t="n">
-        <v>65.37647286583879</v>
+        <v>65.37647286583828</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.84198896081917</v>
+        <v>42.84316564520119</v>
       </c>
       <c r="S9" t="n">
-        <v>158.7245242835938</v>
+        <v>158.7245242835935</v>
       </c>
       <c r="T9" t="n">
-        <v>185.0225234589681</v>
+        <v>197.3526870353636</v>
       </c>
       <c r="U9" t="n">
-        <v>211.8966603704807</v>
+        <v>225.8954836860979</v>
       </c>
       <c r="V9" t="n">
-        <v>218.8017638338081</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>167.5018166055418</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.2479977830108</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>134.6166497025953</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,13 +28028,13 @@
         <v>167.4060883374045</v>
       </c>
       <c r="H10" t="n">
-        <v>144.6967960347618</v>
+        <v>157.0269596111573</v>
       </c>
       <c r="I10" t="n">
-        <v>123.8623834512101</v>
+        <v>137.861206766827</v>
       </c>
       <c r="J10" t="n">
-        <v>38.00856161252131</v>
+        <v>52.00738492813763</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.18657270943591</v>
+        <v>23.186572709435</v>
       </c>
       <c r="R10" t="n">
-        <v>150.994564194131</v>
+        <v>150.9945641941304</v>
       </c>
       <c r="S10" t="n">
-        <v>213.8235426973271</v>
+        <v>213.8235426973269</v>
       </c>
       <c r="T10" t="n">
-        <v>225.4465096110498</v>
+        <v>225.4465096110497</v>
       </c>
       <c r="U10" t="n">
         <v>286.2871262098879</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605494</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221386</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221331</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221237</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221309</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221253</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221466</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.230113343095111</v>
+        <v>1.23011334309511</v>
       </c>
       <c r="H5" t="n">
-        <v>12.59789827497281</v>
+        <v>12.5978982749728</v>
       </c>
       <c r="I5" t="n">
-        <v>47.42394465967431</v>
+        <v>47.42394465967428</v>
       </c>
       <c r="J5" t="n">
-        <v>104.4043323535188</v>
+        <v>104.4043323535187</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4750301667349</v>
+        <v>156.4750301667347</v>
       </c>
       <c r="L5" t="n">
-        <v>194.1211113904819</v>
+        <v>194.1211113904818</v>
       </c>
       <c r="M5" t="n">
-        <v>215.9971395557496</v>
+        <v>215.9971395557494</v>
       </c>
       <c r="N5" t="n">
-        <v>219.4921990918186</v>
+        <v>219.4921990918184</v>
       </c>
       <c r="O5" t="n">
-        <v>207.2602595364166</v>
+        <v>207.2602595364164</v>
       </c>
       <c r="P5" t="n">
-        <v>176.891836378756</v>
+        <v>176.8918363787558</v>
       </c>
       <c r="Q5" t="n">
-        <v>132.8384022791623</v>
+        <v>132.8384022791622</v>
       </c>
       <c r="R5" t="n">
-        <v>77.27110728819834</v>
+        <v>77.27110728819828</v>
       </c>
       <c r="S5" t="n">
-        <v>28.03120780577987</v>
+        <v>28.03120780577985</v>
       </c>
       <c r="T5" t="n">
-        <v>5.384821159398851</v>
+        <v>5.384821159398847</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09840906744760886</v>
+        <v>0.09840906744760879</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6581686627701818</v>
+        <v>0.6581686627701814</v>
       </c>
       <c r="H6" t="n">
-        <v>6.356523664122546</v>
+        <v>6.356523664122542</v>
       </c>
       <c r="I6" t="n">
-        <v>22.66063159099091</v>
+        <v>22.6606315909909</v>
       </c>
       <c r="J6" t="n">
-        <v>62.18250510847583</v>
+        <v>62.18250510847578</v>
       </c>
       <c r="K6" t="n">
-        <v>106.279805514078</v>
+        <v>106.2798055140779</v>
       </c>
       <c r="L6" t="n">
-        <v>142.9063142563064</v>
+        <v>142.9063142563063</v>
       </c>
       <c r="M6" t="n">
-        <v>156.1328572376355</v>
+        <v>156.1328572376354</v>
       </c>
       <c r="N6" t="n">
-        <v>145.3405353989505</v>
+        <v>145.3405353989504</v>
       </c>
       <c r="O6" t="n">
-        <v>156.5950677600616</v>
+        <v>156.5950677600615</v>
       </c>
       <c r="P6" t="n">
-        <v>125.681347542492</v>
+        <v>125.6813475424919</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.01465246168146</v>
+        <v>84.01465246168141</v>
       </c>
       <c r="R6" t="n">
-        <v>40.86419118497675</v>
+        <v>40.86419118497671</v>
       </c>
       <c r="S6" t="n">
-        <v>12.22519424048999</v>
+        <v>12.22519424048998</v>
       </c>
       <c r="T6" t="n">
-        <v>2.652881583709636</v>
+        <v>2.652881583709633</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04330056991909093</v>
+        <v>0.0433005699190909</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5517864975481966</v>
+        <v>0.5517864975481962</v>
       </c>
       <c r="H7" t="n">
-        <v>4.905883587292152</v>
+        <v>4.905883587292148</v>
       </c>
       <c r="I7" t="n">
-        <v>16.59372485354032</v>
+        <v>16.59372485354031</v>
       </c>
       <c r="J7" t="n">
-        <v>39.0113053766575</v>
+        <v>39.01130537665748</v>
       </c>
       <c r="K7" t="n">
-        <v>64.10755853332684</v>
+        <v>64.10755853332678</v>
       </c>
       <c r="L7" t="n">
-        <v>82.03560346275646</v>
+        <v>82.03560346275638</v>
       </c>
       <c r="M7" t="n">
-        <v>86.49504161112321</v>
+        <v>86.49504161112316</v>
       </c>
       <c r="N7" t="n">
-        <v>84.43838284753456</v>
+        <v>84.43838284753448</v>
       </c>
       <c r="O7" t="n">
-        <v>77.99251330799423</v>
+        <v>77.99251330799417</v>
       </c>
       <c r="P7" t="n">
-        <v>66.73606875801096</v>
+        <v>66.7360687580109</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.20459480833127</v>
+        <v>46.20459480833124</v>
       </c>
       <c r="R7" t="n">
-        <v>24.81032742612163</v>
+        <v>24.81032742612162</v>
       </c>
       <c r="S7" t="n">
-        <v>9.616133779999023</v>
+        <v>9.616133779999016</v>
       </c>
       <c r="T7" t="n">
-        <v>2.357633216796839</v>
+        <v>2.357633216796838</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03009744532081076</v>
+        <v>0.03009744532081074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.303914199517887</v>
+        <v>1.303914199517915</v>
       </c>
       <c r="H8" t="n">
-        <v>13.35371129581257</v>
+        <v>13.35371129581285</v>
       </c>
       <c r="I8" t="n">
-        <v>50.2691521769134</v>
+        <v>50.26915217691446</v>
       </c>
       <c r="J8" t="n">
-        <v>110.6680877913314</v>
+        <v>110.6680877913337</v>
       </c>
       <c r="K8" t="n">
-        <v>165.8627758569236</v>
+        <v>165.8627758569271</v>
       </c>
       <c r="L8" t="n">
-        <v>205.7674400404192</v>
+        <v>205.7674400404235</v>
       </c>
       <c r="M8" t="n">
-        <v>228.9559241860954</v>
+        <v>228.9559241861002</v>
       </c>
       <c r="N8" t="n">
-        <v>232.6606704054756</v>
+        <v>232.6606704054805</v>
       </c>
       <c r="O8" t="n">
-        <v>219.6948735840196</v>
+        <v>219.6948735840242</v>
       </c>
       <c r="P8" t="n">
-        <v>187.5044917834217</v>
+        <v>187.5044917834257</v>
       </c>
       <c r="Q8" t="n">
-        <v>140.8080645131874</v>
+        <v>140.8080645131903</v>
       </c>
       <c r="R8" t="n">
-        <v>81.90700033546557</v>
+        <v>81.90700033546729</v>
       </c>
       <c r="S8" t="n">
-        <v>29.71294482151389</v>
+        <v>29.71294482151452</v>
       </c>
       <c r="T8" t="n">
-        <v>5.707884408389555</v>
+        <v>5.707884408389675</v>
       </c>
       <c r="U8" t="n">
-        <v>0.104313135961431</v>
+        <v>0.1043131359614332</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.69765560212884</v>
+        <v>0.6976556021288547</v>
       </c>
       <c r="H9" t="n">
-        <v>6.737884367928535</v>
+        <v>6.737884367928677</v>
       </c>
       <c r="I9" t="n">
-        <v>24.02015998557629</v>
+        <v>24.0201599855768</v>
       </c>
       <c r="J9" t="n">
-        <v>65.91315493621643</v>
+        <v>65.91315493621781</v>
       </c>
       <c r="K9" t="n">
-        <v>112.6560802788487</v>
+        <v>112.6560802788511</v>
       </c>
       <c r="L9" t="n">
-        <v>151.4800025587203</v>
+        <v>151.4800025587235</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1328572376355</v>
+        <v>156.1328572376354</v>
       </c>
       <c r="N9" t="n">
-        <v>145.3405353989505</v>
+        <v>145.3405353989504</v>
       </c>
       <c r="O9" t="n">
-        <v>156.5950677600616</v>
+        <v>156.5950677600615</v>
       </c>
       <c r="P9" t="n">
-        <v>133.2216210766905</v>
+        <v>133.2216210766933</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.05512563314808</v>
+        <v>89.05512563314996</v>
       </c>
       <c r="R9" t="n">
-        <v>43.31584519182396</v>
+        <v>43.31584519182487</v>
       </c>
       <c r="S9" t="n">
-        <v>12.95864682024401</v>
+        <v>12.95864682024429</v>
       </c>
       <c r="T9" t="n">
-        <v>2.812041659457911</v>
+        <v>2.81204165945797</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04589839487689739</v>
+        <v>0.04589839487689835</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5848910210542331</v>
+        <v>0.5848910210542454</v>
       </c>
       <c r="H10" t="n">
-        <v>5.200212896282185</v>
+        <v>5.200212896282294</v>
       </c>
       <c r="I10" t="n">
-        <v>17.58926816043094</v>
+        <v>17.58926816043131</v>
       </c>
       <c r="J10" t="n">
-        <v>41.35179518853428</v>
+        <v>41.35179518853515</v>
       </c>
       <c r="K10" t="n">
-        <v>67.95370226430089</v>
+        <v>67.95370226430231</v>
       </c>
       <c r="L10" t="n">
-        <v>86.95734325746299</v>
+        <v>86.95734325746483</v>
       </c>
       <c r="M10" t="n">
-        <v>91.68432614580126</v>
+        <v>91.6843261458032</v>
       </c>
       <c r="N10" t="n">
-        <v>89.5042777945992</v>
+        <v>89.50427779460108</v>
       </c>
       <c r="O10" t="n">
-        <v>82.67168723046564</v>
+        <v>82.67168723046737</v>
       </c>
       <c r="P10" t="n">
-        <v>70.73991040095922</v>
+        <v>70.73991040096071</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.97664722664128</v>
+        <v>48.97664722664231</v>
       </c>
       <c r="R10" t="n">
-        <v>26.29882718303851</v>
+        <v>26.29882718303906</v>
       </c>
       <c r="S10" t="n">
-        <v>10.19305533964513</v>
+        <v>10.19305533964535</v>
       </c>
       <c r="T10" t="n">
-        <v>2.499079817231722</v>
+        <v>2.499079817231775</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0319031466029582</v>
+        <v>0.03190314660295888</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I11" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L11" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R11" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T11" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K12" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578283</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P12" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T12" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,40 +31916,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P13" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R13" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -32314,10 +32314,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>392.4972796419684</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
@@ -32332,7 +32332,7 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,10 +32551,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>392.4972796419684</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155585</v>
@@ -32569,7 +32569,7 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32788,10 +32788,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>392.4972796419682</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
@@ -32806,7 +32806,7 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -34456,13 +34456,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N45" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>6.876045741711437</v>
@@ -34719,7 +34719,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.99882331561718</v>
+        <v>13.43321429276386</v>
       </c>
       <c r="L5" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.43321429276397</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9.081279816331763</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.351934476432206</v>
+        <v>13.43321429276386</v>
       </c>
       <c r="M6" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="N6" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="O6" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>13.43321429276386</v>
       </c>
       <c r="L7" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="M7" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="O7" t="n">
-        <v>13.43321429276396</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13.99882331561718</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>10.18560748387426</v>
       </c>
       <c r="M8" t="n">
-        <v>13.43321429276397</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>13.99882331561718</v>
+        <v>3.2476068088896</v>
       </c>
       <c r="O8" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>13.43321429276397</v>
+        <v>13.43321429276386</v>
       </c>
       <c r="M9" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="N9" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="O9" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35342,13 +35342,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>13.43321429276397</v>
+        <v>13.43321429276386</v>
       </c>
       <c r="O10" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="P10" t="n">
-        <v>13.99882331561718</v>
+        <v>13.99882331561707</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P11" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K12" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O12" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P12" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L13" t="n">
         <v>401.8727935817349</v>
@@ -35582,7 +35582,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O13" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
         <v>307.6533340553059</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M16" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N16" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O16" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>254.6558406676093</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
@@ -35980,7 +35980,7 @@
         <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
@@ -36059,10 +36059,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
         <v>433.5251384721832</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>254.6558406676093</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356843</v>
@@ -36217,7 +36217,7 @@
         <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193552</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
@@ -36296,10 +36296,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641566</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>254.6558406676093</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
@@ -36454,7 +36454,7 @@
         <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817343</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895085</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
@@ -36533,10 +36533,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36992,19 +36992,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37235,7 +37235,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
@@ -37472,7 +37472,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
@@ -37566,7 +37566,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414985</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
@@ -37791,7 +37791,7 @@
         <v>671.8997542381571</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O41" t="n">
         <v>635.6527791348811</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
         <v>277.1256801414978</v>
@@ -37955,10 +37955,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721832</v>
@@ -38104,13 +38104,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38192,10 +38192,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
